--- a/Assets/Excels/Battle/CampInfo.xlsx
+++ b/Assets/Excels/Battle/CampInfo.xlsx
@@ -34,12 +34,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+士兵图片路径</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -50,28 +72,43 @@
     <t>TilePath</t>
   </si>
   <si>
+    <t>SoldierSpritePath</t>
+  </si>
+  <si>
     <t>美帝</t>
   </si>
   <si>
     <t>Tiles/campTiles/Blue</t>
   </si>
   <si>
+    <t>Sprite/BattleUnit/soldier/US_soldier</t>
+  </si>
+  <si>
     <t>德意志</t>
   </si>
   <si>
     <t>Tiles/campTiles/Red</t>
   </si>
   <si>
+    <t>Sprite/BattleUnit/soldier/Germany_soldier</t>
+  </si>
+  <si>
     <t>法兰西</t>
   </si>
   <si>
     <t>Tiles/campTiles/Green</t>
   </si>
   <si>
+    <t>Sprite/BattleUnit/soldier/japan_soldier</t>
+  </si>
+  <si>
     <t>苏维埃</t>
   </si>
   <si>
     <t>Tiles/campTiles/Black</t>
+  </si>
+  <si>
+    <t>Sprite/BattleUnit/soldier/soviet_soldier</t>
   </si>
 </sst>
 </file>
@@ -79,13 +116,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +131,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -102,25 +245,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,37 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -170,72 +268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -252,19 +295,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,133 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,35 +491,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,24 +545,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,23 +1094,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1077,49 +1120,64 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Battle/CampInfo.xlsx
+++ b/Assets/Excels/Battle/CampInfo.xlsx
@@ -56,12 +56,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用来表示具体是哪个类的枚举
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -75,7 +98,10 @@
     <t>SoldierSpritePath</t>
   </si>
   <si>
-    <t>美帝</t>
+    <t>CampClassName</t>
+  </si>
+  <si>
+    <t>美国</t>
   </si>
   <si>
     <t>Tiles/campTiles/Blue</t>
@@ -84,7 +110,10 @@
     <t>Sprite/BattleUnit/soldier/US_soldier</t>
   </si>
   <si>
-    <t>德意志</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>德国</t>
   </si>
   <si>
     <t>Tiles/campTiles/Red</t>
@@ -93,7 +122,10 @@
     <t>Sprite/BattleUnit/soldier/Germany_soldier</t>
   </si>
   <si>
-    <t>法兰西</t>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>日本</t>
   </si>
   <si>
     <t>Tiles/campTiles/Green</t>
@@ -102,13 +134,19 @@
     <t>Sprite/BattleUnit/soldier/japan_soldier</t>
   </si>
   <si>
-    <t>苏维埃</t>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>苏联</t>
   </si>
   <si>
     <t>Tiles/campTiles/Black</t>
   </si>
   <si>
     <t>Sprite/BattleUnit/soldier/soviet_soldier</t>
+  </si>
+  <si>
+    <t>SOVIET</t>
   </si>
 </sst>
 </file>
@@ -116,11 +154,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,6 +169,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -139,24 +258,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,60 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -231,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,37 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +333,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,163 +495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,26 +585,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +609,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,23 +1132,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="23.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,61 +1161,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Battle/CampInfo.xlsx
+++ b/Assets/Excels/Battle/CampInfo.xlsx
@@ -79,12 +79,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+专属卡牌在卡牌表中的起始ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+专属卡牌在卡牌表中的结尾ID
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +144,12 @@
   </si>
   <si>
     <t>CampClassName</t>
+  </si>
+  <si>
+    <t>CardStartIndex</t>
+  </si>
+  <si>
+    <t>CardEndIndex</t>
   </si>
   <si>
     <t>美国</t>
@@ -154,9 +205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -169,98 +220,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +267,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -290,14 +319,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -305,9 +350,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,19 +384,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,163 +540,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,27 +593,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,8 +619,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -601,11 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +666,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,137 +695,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +833,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,23 +1186,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1164,73 +1219,103 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4001</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6001</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Battle/CampInfo.xlsx
+++ b/Assets/Excels/Battle/CampInfo.xlsx
@@ -124,12 +124,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ShengZhiXiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+阵营大炮图标路径</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -137,7 +159,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>TilePath</t>
+    <t>CampTilePath</t>
   </si>
   <si>
     <t>SoldierSpritePath</t>
@@ -152,6 +174,9 @@
     <t>CardEndIndex</t>
   </si>
   <si>
+    <t>CannonTilePath</t>
+  </si>
+  <si>
     <t>美国</t>
   </si>
   <si>
@@ -164,6 +189,9 @@
     <t>USA</t>
   </si>
   <si>
+    <t>Tiles/cannonTiles/US_artillery</t>
+  </si>
+  <si>
     <t>德国</t>
   </si>
   <si>
@@ -176,6 +204,9 @@
     <t>GERMANY</t>
   </si>
   <si>
+    <t>Tiles/cannonTiles/Germany_artillery</t>
+  </si>
+  <si>
     <t>日本</t>
   </si>
   <si>
@@ -188,6 +219,9 @@
     <t>JAPAN</t>
   </si>
   <si>
+    <t>Tiles/cannonTiles/Japan_artillery</t>
+  </si>
+  <si>
     <t>苏联</t>
   </si>
   <si>
@@ -198,6 +232,9 @@
   </si>
   <si>
     <t>SOVIET</t>
+  </si>
+  <si>
+    <t>Tiles/cannonTiles/Soviet_artillery</t>
   </si>
 </sst>
 </file>
@@ -220,6 +257,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -229,7 +304,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,8 +363,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -259,106 +394,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +639,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,54 +712,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,137 +732,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,9 +870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,24 +1220,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7777777777778" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1225,22 +1260,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>4001</v>
@@ -1248,22 +1286,25 @@
       <c r="G2" s="1">
         <v>4001</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>6001</v>
@@ -1271,22 +1312,25 @@
       <c r="G3" s="1">
         <v>6001</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>7001</v>
@@ -1294,28 +1338,34 @@
       <c r="G4" s="1">
         <v>7001</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
         <v>5001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>5001</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
